--- a/public/assets/file/format_rombel_last.xlsx
+++ b/public/assets/file/format_rombel_last.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
   <si>
     <t>nama rombel</t>
   </si>
@@ -98,6 +98,12 @@
     <t>ISNA RAHMADANI</t>
   </si>
   <si>
+    <t>Kaprodi</t>
+  </si>
+  <si>
+    <t>Kepsek</t>
+  </si>
+  <si>
     <t>MOCH HASBI</t>
   </si>
   <si>
@@ -150,6 +156,9 @@
   </si>
   <si>
     <t>Sayyid Ihza Anshari</t>
+  </si>
+  <si>
+    <t>Waka</t>
   </si>
   <si>
     <t>Wali Kelas</t>
@@ -552,7 +561,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="L6" sqref="L6"/>
@@ -636,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -656,7 +665,7 @@
         <v>2</v>
       </c>
       <c r="M4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -779,7 +788,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="I19">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s">
         <v>27</v>
@@ -787,7 +796,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="I20">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="J20" t="s">
         <v>28</v>
@@ -795,7 +804,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="I21">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J21" t="s">
         <v>29</v>
@@ -803,7 +812,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="I22">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J22" t="s">
         <v>30</v>
@@ -811,7 +820,7 @@
     </row>
     <row r="23" spans="1:13">
       <c r="I23">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J23" t="s">
         <v>31</v>
@@ -819,7 +828,7 @@
     </row>
     <row r="24" spans="1:13">
       <c r="I24">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J24" t="s">
         <v>32</v>
@@ -827,7 +836,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="I25">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J25" t="s">
         <v>33</v>
@@ -835,7 +844,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="I26">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J26" t="s">
         <v>34</v>
@@ -843,7 +852,7 @@
     </row>
     <row r="27" spans="1:13">
       <c r="I27">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J27" t="s">
         <v>35</v>
@@ -851,7 +860,7 @@
     </row>
     <row r="28" spans="1:13">
       <c r="I28">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J28" t="s">
         <v>36</v>
@@ -859,7 +868,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="I29">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J29" t="s">
         <v>37</v>
@@ -867,7 +876,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="I30">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="J30" t="s">
         <v>38</v>
@@ -875,7 +884,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="I31">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J31" t="s">
         <v>39</v>
@@ -883,7 +892,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="I32">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="J32" t="s">
         <v>40</v>
@@ -891,7 +900,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="I33">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J33" t="s">
         <v>41</v>
@@ -899,7 +908,7 @@
     </row>
     <row r="34" spans="1:13">
       <c r="I34">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J34" t="s">
         <v>42</v>
@@ -907,7 +916,7 @@
     </row>
     <row r="35" spans="1:13">
       <c r="I35">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J35" t="s">
         <v>43</v>
@@ -915,7 +924,7 @@
     </row>
     <row r="36" spans="1:13">
       <c r="I36">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J36" t="s">
         <v>44</v>
@@ -923,10 +932,34 @@
     </row>
     <row r="37" spans="1:13">
       <c r="I37">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="J37" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="I38">
+        <v>83</v>
+      </c>
+      <c r="J38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="I39">
+        <v>88</v>
+      </c>
+      <c r="J39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="I40">
+        <v>51</v>
+      </c>
+      <c r="J40" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
